--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_yyn_pf_sc_results_bus.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3282,58 +3282,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526411</v>
       </c>
       <c r="C2">
-        <v>5.24863910873685</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970814</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405613</v>
       </c>
       <c r="F2">
-        <v>333.333352253926</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347086</v>
+        <v>0.6350853098740162</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.6350853099409386</v>
       </c>
       <c r="Q2">
-        <v>-4.877399888999562E-09</v>
+        <v>59.99999999685333</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3341,58 +3341,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6766793457496076</v>
       </c>
       <c r="C3">
-        <v>4.755177813373823</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.771521585631098</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.813620048471916</v>
       </c>
       <c r="F3">
-        <v>54.90806381191826</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>55.0967854381645</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329336963</v>
+        <v>0.0122899132933383</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>51.69459002692055</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037712</v>
+        <v>0.1077319053235368</v>
       </c>
       <c r="K3">
-        <v>2.308438694626174</v>
+        <v>2.308438694643206</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135518</v>
+        <v>0.1077319054125031</v>
       </c>
       <c r="M3">
-        <v>2.308438694642247</v>
+        <v>2.308438694642835</v>
       </c>
       <c r="N3">
-        <v>0.9318218419616013</v>
+        <v>1.034862894271765</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023842451</v>
       </c>
       <c r="P3">
-        <v>0.9318218419626179</v>
+        <v>1.031318204562458</v>
       </c>
       <c r="Q3">
-        <v>0.05810097842053325</v>
+        <v>32.32277567180757</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S3">
-        <v>-179.9418990215748</v>
+        <v>147.9898092982805</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3400,58 +3400,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6419915686052314</v>
       </c>
       <c r="C4">
-        <v>3.690286004605432</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.735982987435709</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.413080099034009</v>
       </c>
       <c r="F4">
-        <v>42.61175236291309</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.13941566967738</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.13037215130906</v>
+        <v>4.130372151309053</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>53.31280873460585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544335</v>
+        <v>0.6277319162743572</v>
       </c>
       <c r="K4">
-        <v>2.898438697943253</v>
+        <v>2.898438697960263</v>
       </c>
       <c r="L4">
-        <v>0.62773191636425</v>
+        <v>0.6277319163632944</v>
       </c>
       <c r="M4">
-        <v>2.898438697959375</v>
+        <v>2.898438697959953</v>
       </c>
       <c r="N4">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="P4">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="Q4">
-        <v>0.2095971264322447</v>
+        <v>33.2032868447533</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.7904028735454</v>
+        <v>147.8970114821342</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3459,58 +3459,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.608492552196106</v>
       </c>
       <c r="C5">
-        <v>2.971863591106537</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.027772914345712</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.026266776206084</v>
       </c>
       <c r="F5">
-        <v>34.31612488640415</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>34.9617101428511</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322236</v>
+        <v>7.914819502322251</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>54.80730476795337</v>
       </c>
       <c r="J5">
-        <v>1.147731927161463</v>
+        <v>1.147731927081503</v>
       </c>
       <c r="K5">
-        <v>3.488438701399368</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L5">
-        <v>1.147731927171276</v>
+        <v>1.147731927170444</v>
       </c>
       <c r="M5">
-        <v>3.488438701415544</v>
+        <v>3.488438701416124</v>
       </c>
       <c r="N5">
-        <v>0.9224887204894726</v>
+        <v>1.015377306145668</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="P5">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="Q5">
-        <v>0.3192929610913485</v>
+        <v>33.95614305147019</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999756</v>
       </c>
       <c r="S5">
-        <v>-179.6807070388815</v>
+        <v>147.6794363569783</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3518,58 +3518,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6084925521961055</v>
       </c>
       <c r="C6">
-        <v>2.971863591106533</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.027772914345709</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.02626677620608</v>
       </c>
       <c r="F6">
-        <v>34.3161248864041</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>34.96171014285106</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.914819502322266</v>
+        <v>7.91481950232227</v>
       </c>
       <c r="I6">
-        <v>54.80730476795357</v>
+        <v>54.8073047679534</v>
       </c>
       <c r="J6">
-        <v>1.147731927161471</v>
+        <v>1.147731927081495</v>
       </c>
       <c r="K6">
-        <v>3.48843870139937</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L6">
-        <v>1.147731927171268</v>
+        <v>1.147731927170457</v>
       </c>
       <c r="M6">
-        <v>3.488438701415554</v>
+        <v>3.488438701416126</v>
       </c>
       <c r="N6">
-        <v>0.9224887204894725</v>
+        <v>1.015377306145669</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="P6">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="Q6">
-        <v>0.3192929610913932</v>
+        <v>33.95614305147019</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999757</v>
       </c>
       <c r="S6">
-        <v>-179.6807070388816</v>
+        <v>147.6794363569783</v>
       </c>
     </row>
   </sheetData>
@@ -3649,58 +3649,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.248639108526411</v>
       </c>
       <c r="C2">
-        <v>5.24863910873685</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.248639107970814</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>333.3333522405613</v>
       </c>
       <c r="F2">
-        <v>333.333352253926</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>333.3333522052762</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347086</v>
+        <v>0.6350853098740162</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098507081</v>
+        <v>0.6350853099409386</v>
       </c>
       <c r="Q2">
-        <v>-4.877399888999562E-09</v>
+        <v>59.99999999685333</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>179.999999996043</v>
+        <v>119.9999999996536</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3708,58 +3708,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6766793457496076</v>
       </c>
       <c r="C3">
-        <v>4.755177813373823</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.771521585631098</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.813620048471916</v>
       </c>
       <c r="F3">
-        <v>54.90806381191826</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>55.0967854381645</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329336963</v>
+        <v>0.0122899132933383</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>51.69459002692055</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037712</v>
+        <v>0.1077319053235368</v>
       </c>
       <c r="K3">
-        <v>2.308438694626174</v>
+        <v>2.308438694643206</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135518</v>
+        <v>0.1077319054125031</v>
       </c>
       <c r="M3">
-        <v>2.308438694642247</v>
+        <v>2.308438694642835</v>
       </c>
       <c r="N3">
-        <v>0.9318218419616013</v>
+        <v>1.034862894271765</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.100000023842451</v>
       </c>
       <c r="P3">
-        <v>0.9318218419626179</v>
+        <v>1.031318204562458</v>
       </c>
       <c r="Q3">
-        <v>0.05810097842053325</v>
+        <v>32.32277567180757</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999773</v>
       </c>
       <c r="S3">
-        <v>-179.9418990215748</v>
+        <v>147.9898092982805</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3767,58 +3767,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.6419915686052314</v>
       </c>
       <c r="C4">
-        <v>3.690286004605432</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.735982987435709</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.413080099034009</v>
       </c>
       <c r="F4">
-        <v>42.61175236291309</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.13941566967738</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.13037215130906</v>
+        <v>4.130372151309053</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>53.31280873460585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544335</v>
+        <v>0.6277319162743572</v>
       </c>
       <c r="K4">
-        <v>2.898438697943253</v>
+        <v>2.898438697960263</v>
       </c>
       <c r="L4">
-        <v>0.62773191636425</v>
+        <v>0.6277319163632944</v>
       </c>
       <c r="M4">
-        <v>2.898438697959375</v>
+        <v>2.898438697959953</v>
       </c>
       <c r="N4">
-        <v>0.9271486224980959</v>
+        <v>1.025589789387375</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.100000023842561</v>
       </c>
       <c r="P4">
-        <v>0.9271486225001982</v>
+        <v>1.013045203623771</v>
       </c>
       <c r="Q4">
-        <v>0.2095971264322447</v>
+        <v>33.2032868447533</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.7904028735454</v>
+        <v>147.8970114821342</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3826,58 +3826,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.608492552196106</v>
       </c>
       <c r="C5">
-        <v>2.971863591106537</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.027772914345712</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.026266776206084</v>
       </c>
       <c r="F5">
-        <v>34.31612488640415</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>34.9617101428511</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322236</v>
+        <v>7.914819502322251</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>54.80730476795337</v>
       </c>
       <c r="J5">
-        <v>1.147731927161463</v>
+        <v>1.147731927081503</v>
       </c>
       <c r="K5">
-        <v>3.488438701399368</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L5">
-        <v>1.147731927171276</v>
+        <v>1.147731927170444</v>
       </c>
       <c r="M5">
-        <v>3.488438701415544</v>
+        <v>3.488438701416124</v>
       </c>
       <c r="N5">
-        <v>0.9224887204894726</v>
+        <v>1.015377306145668</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="P5">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="Q5">
-        <v>0.3192929610913485</v>
+        <v>33.95614305147019</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999756</v>
       </c>
       <c r="S5">
-        <v>-179.6807070388815</v>
+        <v>147.6794363569783</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3885,58 +3885,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.6084925521961055</v>
       </c>
       <c r="C6">
-        <v>2.971863591106533</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.027772914345709</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.02626677620608</v>
       </c>
       <c r="F6">
-        <v>34.3161248864041</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>34.96171014285106</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.914819502322266</v>
+        <v>7.91481950232227</v>
       </c>
       <c r="I6">
-        <v>54.80730476795357</v>
+        <v>54.8073047679534</v>
       </c>
       <c r="J6">
-        <v>1.147731927161471</v>
+        <v>1.147731927081495</v>
       </c>
       <c r="K6">
-        <v>3.48843870139937</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L6">
-        <v>1.147731927171268</v>
+        <v>1.147731927170457</v>
       </c>
       <c r="M6">
-        <v>3.488438701415554</v>
+        <v>3.488438701416126</v>
       </c>
       <c r="N6">
-        <v>0.9224887204894725</v>
+        <v>1.015377306145669</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.100000023842633</v>
       </c>
       <c r="P6">
-        <v>0.9224887204918465</v>
+        <v>0.9966278623711199</v>
       </c>
       <c r="Q6">
-        <v>0.3192929610913932</v>
+        <v>33.95614305147019</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999757</v>
       </c>
       <c r="S6">
-        <v>-179.6807070388816</v>
+        <v>147.6794363569783</v>
       </c>
     </row>
   </sheetData>
@@ -4016,58 +4016,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278031</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898907</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011794</v>
+        <v>0.8378427578966809</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504782</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4075,58 +4075,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5225663212317312</v>
       </c>
       <c r="C3">
-        <v>1.168865746753678</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.314061716337848</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.03407612465145</v>
       </c>
       <c r="F3">
-        <v>13.49689907069538</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.17347771318876</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329336963</v>
+        <v>0.0122899132933383</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>51.69459002692055</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037712</v>
+        <v>0.1077319053235368</v>
       </c>
       <c r="K3">
-        <v>2.308438694626174</v>
+        <v>2.308438694643206</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135518</v>
+        <v>0.1077319054125031</v>
       </c>
       <c r="M3">
-        <v>2.308438694642247</v>
+        <v>2.308438694642835</v>
       </c>
       <c r="N3">
-        <v>1.097621028582164</v>
+        <v>1.043702907371753</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797308</v>
+        <v>1.100000023842581</v>
       </c>
       <c r="P3">
-        <v>0.9605330069427555</v>
+        <v>1.054025734328035</v>
       </c>
       <c r="Q3">
-        <v>22.9541761523928</v>
+        <v>31.16732341457357</v>
       </c>
       <c r="R3">
-        <v>-100.051016339622</v>
+        <v>-89.99999999999744</v>
       </c>
       <c r="S3">
-        <v>153.34643795268</v>
+        <v>147.9169914318448</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4134,58 +4134,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4957576224237676</v>
       </c>
       <c r="C4">
-        <v>1.080316732488507</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.204570439751576</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.724515935183422</v>
       </c>
       <c r="F4">
-        <v>12.47442312624593</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.90918135296877</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.13037215130906</v>
+        <v>4.130372151309053</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>53.31280873460585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544335</v>
+        <v>0.6277319162743572</v>
       </c>
       <c r="K4">
-        <v>2.898438697943253</v>
+        <v>2.898438697960263</v>
       </c>
       <c r="L4">
-        <v>0.62773191636425</v>
+        <v>0.6277319163632944</v>
       </c>
       <c r="M4">
-        <v>2.898438697959375</v>
+        <v>2.898438697959953</v>
       </c>
       <c r="N4">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="P4">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="Q4">
-        <v>21.66776978529776</v>
+        <v>31.83778581150034</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015473</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S4">
-        <v>155.4333530898804</v>
+        <v>147.7825912654873</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4193,58 +4193,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4714994675902702</v>
       </c>
       <c r="C5">
-        <v>1.004677087141675</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.111444801162599</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.444406890720154</v>
       </c>
       <c r="F5">
-        <v>11.6010117341979</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.83385910281274</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322236</v>
+        <v>7.914819502322251</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>54.80730476795337</v>
       </c>
       <c r="J5">
-        <v>1.147731927161463</v>
+        <v>1.147731927081503</v>
       </c>
       <c r="K5">
-        <v>3.488438701399368</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L5">
-        <v>1.147731927171276</v>
+        <v>1.147731927170444</v>
       </c>
       <c r="M5">
-        <v>3.488438701415544</v>
+        <v>3.488438701416124</v>
       </c>
       <c r="N5">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="O5">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="P5">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="Q5">
-        <v>20.50747906418568</v>
+        <v>32.42077233922407</v>
       </c>
       <c r="R5">
-        <v>-99.08615255180601</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>157.2132384620389</v>
+        <v>147.5842645502669</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4252,58 +4252,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.47149946759027</v>
       </c>
       <c r="C6">
-        <v>1.004677087141673</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.111444801162599</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.444406890720153</v>
       </c>
       <c r="F6">
-        <v>11.60101173419789</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.83385910281273</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.914819502322266</v>
+        <v>7.91481950232227</v>
       </c>
       <c r="I6">
-        <v>54.80730476795357</v>
+        <v>54.8073047679534</v>
       </c>
       <c r="J6">
-        <v>1.147731927161471</v>
+        <v>1.147731927081495</v>
       </c>
       <c r="K6">
-        <v>3.48843870139937</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L6">
-        <v>1.147731927171268</v>
+        <v>1.147731927170457</v>
       </c>
       <c r="M6">
-        <v>3.488438701415554</v>
+        <v>3.488438701416126</v>
       </c>
       <c r="N6">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="O6">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="P6">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="Q6">
-        <v>20.50747906418569</v>
+        <v>32.42077233922407</v>
       </c>
       <c r="R6">
-        <v>-99.08615255180599</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>157.2132384620389</v>
+        <v>147.5842645502669</v>
       </c>
     </row>
   </sheetData>
@@ -4534,58 +4534,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
-        <v>229.7713440888676</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>229.7713440658447</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.324394474186052</v>
+        <v>1.324394473163433</v>
       </c>
       <c r="K2">
-        <v>13.24394453578229</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104234</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.8378427578256962</v>
+        <v>0.6918398877278031</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898907</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.6918398877011794</v>
+        <v>0.8378427578966809</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504782</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-115.8807585964592</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>160.4095179569557</v>
+        <v>128.9574716956184</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4593,58 +4593,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.5225663212317312</v>
       </c>
       <c r="C3">
-        <v>1.168865746753678</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.314061716337848</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>6.03407612465145</v>
       </c>
       <c r="F3">
-        <v>13.49689907069538</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.17347771318876</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01228991329336963</v>
+        <v>0.0122899132933383</v>
       </c>
       <c r="I3">
-        <v>51.69459002692074</v>
+        <v>51.69459002692055</v>
       </c>
       <c r="J3">
-        <v>0.1077319054037712</v>
+        <v>0.1077319053235368</v>
       </c>
       <c r="K3">
-        <v>2.308438694626174</v>
+        <v>2.308438694643206</v>
       </c>
       <c r="L3">
-        <v>0.1077319054135518</v>
+        <v>0.1077319054125031</v>
       </c>
       <c r="M3">
-        <v>2.308438694642247</v>
+        <v>2.308438694642835</v>
       </c>
       <c r="N3">
-        <v>1.097621028582164</v>
+        <v>1.043702907371753</v>
       </c>
       <c r="O3">
-        <v>0.8723446855797308</v>
+        <v>1.100000023842581</v>
       </c>
       <c r="P3">
-        <v>0.9605330069427555</v>
+        <v>1.054025734328035</v>
       </c>
       <c r="Q3">
-        <v>22.9541761523928</v>
+        <v>31.16732341457357</v>
       </c>
       <c r="R3">
-        <v>-100.051016339622</v>
+        <v>-89.99999999999744</v>
       </c>
       <c r="S3">
-        <v>153.34643795268</v>
+        <v>147.9169914318448</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -4652,58 +4652,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4957576224237676</v>
       </c>
       <c r="C4">
-        <v>1.080316732488507</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.204570439751576</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.724515935183422</v>
       </c>
       <c r="F4">
-        <v>12.47442312624593</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>13.90918135296877</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4.13037215130906</v>
+        <v>4.130372151309053</v>
       </c>
       <c r="I4">
-        <v>53.312808734606</v>
+        <v>53.31280873460585</v>
       </c>
       <c r="J4">
-        <v>0.6277319163544335</v>
+        <v>0.6277319162743572</v>
       </c>
       <c r="K4">
-        <v>2.898438697943253</v>
+        <v>2.898438697960263</v>
       </c>
       <c r="L4">
-        <v>0.62773191636425</v>
+        <v>0.6277319163632944</v>
       </c>
       <c r="M4">
-        <v>2.898438697959375</v>
+        <v>2.898438697959953</v>
       </c>
       <c r="N4">
-        <v>1.07252753235464</v>
+        <v>1.034939813087541</v>
       </c>
       <c r="O4">
-        <v>0.8020156209370756</v>
+        <v>1.10000002384261</v>
       </c>
       <c r="P4">
-        <v>0.9499542621949204</v>
+        <v>1.039238165307004</v>
       </c>
       <c r="Q4">
-        <v>21.66776978529776</v>
+        <v>31.83778581150034</v>
       </c>
       <c r="R4">
-        <v>-99.52967390015473</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S4">
-        <v>155.4333530898804</v>
+        <v>147.7825912654873</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4711,58 +4711,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4714994675902702</v>
       </c>
       <c r="C5">
-        <v>1.004677087141675</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.111444801162599</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.444406890720154</v>
       </c>
       <c r="F5">
-        <v>11.6010117341979</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>12.83385910281274</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7.914819502322236</v>
+        <v>7.914819502322251</v>
       </c>
       <c r="I5">
-        <v>54.80730476795357</v>
+        <v>54.80730476795337</v>
       </c>
       <c r="J5">
-        <v>1.147731927161463</v>
+        <v>1.147731927081503</v>
       </c>
       <c r="K5">
-        <v>3.488438701399368</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L5">
-        <v>1.147731927171276</v>
+        <v>1.147731927170444</v>
       </c>
       <c r="M5">
-        <v>3.488438701415544</v>
+        <v>3.488438701416124</v>
       </c>
       <c r="N5">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="O5">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="P5">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="Q5">
-        <v>20.50747906418568</v>
+        <v>32.42077233922407</v>
       </c>
       <c r="R5">
-        <v>-99.08615255180601</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S5">
-        <v>157.2132384620389</v>
+        <v>147.5842645502669</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4770,58 +4770,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.47149946759027</v>
       </c>
       <c r="C6">
-        <v>1.004677087141673</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1.111444801162599</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.444406890720153</v>
       </c>
       <c r="F6">
-        <v>11.60101173419789</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>12.83385910281273</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.914819502322266</v>
+        <v>7.91481950232227</v>
       </c>
       <c r="I6">
-        <v>54.80730476795357</v>
+        <v>54.8073047679534</v>
       </c>
       <c r="J6">
-        <v>1.147731927161471</v>
+        <v>1.147731927081495</v>
       </c>
       <c r="K6">
-        <v>3.48843870139937</v>
+        <v>3.488438701416382</v>
       </c>
       <c r="L6">
-        <v>1.147731927171268</v>
+        <v>1.147731927170457</v>
       </c>
       <c r="M6">
-        <v>3.488438701415554</v>
+        <v>3.488438701416126</v>
       </c>
       <c r="N6">
-        <v>1.051434179344487</v>
+        <v>1.025964767138687</v>
       </c>
       <c r="O6">
-        <v>0.7421321146315601</v>
+        <v>1.100000023842624</v>
       </c>
       <c r="P6">
-        <v>0.9410504906318056</v>
+        <v>1.025907490282229</v>
       </c>
       <c r="Q6">
-        <v>20.50747906418569</v>
+        <v>32.42077233922407</v>
       </c>
       <c r="R6">
-        <v>-99.08615255180599</v>
+        <v>-89.99999999999729</v>
       </c>
       <c r="S6">
-        <v>157.2132384620389</v>
+        <v>147.5842645502669</v>
       </c>
     </row>
   </sheetData>
@@ -4901,58 +4901,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412805</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872408</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.50499372124624</v>
+        <v>1.504993722648796</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743764</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>-5.812877593897075E-09</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955744</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4960,58 +4960,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6126649002611589</v>
       </c>
       <c r="C3">
-        <v>4.129369485866963</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.144462906911254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.074444901776308</v>
       </c>
       <c r="F3">
-        <v>47.68185168497435</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>47.85613549903263</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232806575</v>
+        <v>0.02360758232812063</v>
       </c>
       <c r="I3">
-        <v>51.70817167030353</v>
+        <v>51.7081716703032</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814825</v>
+        <v>0.1153518595183985</v>
       </c>
       <c r="K3">
-        <v>2.416397540693375</v>
+        <v>2.416397540676058</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714284</v>
+        <v>0.1153518594704576</v>
       </c>
       <c r="M3">
-        <v>2.416397540675146</v>
+        <v>2.416397540675694</v>
       </c>
       <c r="N3">
-        <v>0.8462512019154312</v>
+        <v>0.9383262346624903</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000000685</v>
       </c>
       <c r="P3">
-        <v>0.8462512019153683</v>
+        <v>0.9349090119114009</v>
       </c>
       <c r="Q3">
-        <v>0.06185191726095315</v>
+        <v>32.43040058768669</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9381480828084</v>
+        <v>147.9007199697427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5019,58 +5019,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5758500660696473</v>
       </c>
       <c r="C4">
-        <v>3.09167519575311</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.154004807858018</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.649343813163494</v>
       </c>
       <c r="F4">
-        <v>35.69959013029894</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>36.41931049684402</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.930129586411855</v>
+        <v>7.930129586411966</v>
       </c>
       <c r="I4">
-        <v>53.2797368181057</v>
+        <v>53.27973681810541</v>
       </c>
       <c r="J4">
-        <v>1.113751880243465</v>
+        <v>1.113751880280625</v>
       </c>
       <c r="K4">
-        <v>3.006397543763111</v>
+        <v>3.006397543745789</v>
       </c>
       <c r="L4">
-        <v>1.113751880233429</v>
+        <v>1.11375188023268</v>
       </c>
       <c r="M4">
-        <v>3.006397543745002</v>
+        <v>3.006397543745516</v>
       </c>
       <c r="N4">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="P4">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="Q4">
-        <v>0.3405644958599032</v>
+        <v>33.69670351315943</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.6594355045004</v>
+        <v>148.0769760729986</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5078,58 +5078,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5336417768137518</v>
       </c>
       <c r="C5">
-        <v>2.36536255845344</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.438396203888634</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.161964469884996</v>
       </c>
       <c r="F5">
-        <v>27.31285419708312</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>28.1561740941213</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439121</v>
+        <v>15.19611505439136</v>
       </c>
       <c r="I5">
-        <v>54.74848265373478</v>
+        <v>54.74848265373448</v>
       </c>
       <c r="J5">
-        <v>2.112151900861305</v>
+        <v>2.112151900898686</v>
       </c>
       <c r="K5">
-        <v>3.596397547105719</v>
+        <v>3.596397547088388</v>
       </c>
       <c r="L5">
-        <v>2.112151900851268</v>
+        <v>2.112151900850747</v>
       </c>
       <c r="M5">
-        <v>3.596397547087705</v>
+        <v>3.596397547088213</v>
       </c>
       <c r="N5">
-        <v>0.8363278178308594</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="P5">
-        <v>0.836327817831066</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="Q5">
-        <v>0.5226334985301927</v>
+        <v>34.72451398956279</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999751</v>
       </c>
       <c r="S5">
-        <v>-179.4773665018747</v>
+        <v>147.9167939911928</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5137,58 +5137,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5336417768137517</v>
       </c>
       <c r="C6">
-        <v>2.36536255845344</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.438396203888634</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.161964469884995</v>
       </c>
       <c r="F6">
-        <v>27.31285419708312</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>28.15617409412128</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>15.19611505439117</v>
+        <v>15.19611505439135</v>
       </c>
       <c r="I6">
-        <v>54.7484826537348</v>
+        <v>54.74848265373451</v>
       </c>
       <c r="J6">
-        <v>2.112151900861293</v>
+        <v>2.112151900898694</v>
       </c>
       <c r="K6">
-        <v>3.596397547105719</v>
+        <v>3.596397547088384</v>
       </c>
       <c r="L6">
-        <v>2.112151900851274</v>
+        <v>2.112151900850749</v>
       </c>
       <c r="M6">
-        <v>3.596397547087707</v>
+        <v>3.596397547088209</v>
       </c>
       <c r="N6">
-        <v>0.8363278178308589</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="P6">
-        <v>0.8363278178310662</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="Q6">
-        <v>0.5226334985302036</v>
+        <v>34.72451398956279</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999751</v>
       </c>
       <c r="S6">
-        <v>-179.4773665018747</v>
+        <v>147.9167939911928</v>
       </c>
     </row>
   </sheetData>
@@ -5268,58 +5268,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
-        <v>4.198911196109218</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.198911195412805</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
-        <v>266.666676031469</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>266.6666759872408</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.50499372124624</v>
+        <v>1.504993722648796</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.577350269195234</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691743764</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>-5.812877593897075E-09</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>179.9999999936331</v>
+        <v>119.9999999955744</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5327,58 +5327,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.6126649002611589</v>
       </c>
       <c r="C3">
-        <v>4.129369485866963</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>4.144462906911254</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.074444901776308</v>
       </c>
       <c r="F3">
-        <v>47.68185168497435</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>47.85613549903263</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232806575</v>
+        <v>0.02360758232812063</v>
       </c>
       <c r="I3">
-        <v>51.70817167030353</v>
+        <v>51.7081716703032</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814825</v>
+        <v>0.1153518595183985</v>
       </c>
       <c r="K3">
-        <v>2.416397540693375</v>
+        <v>2.416397540676058</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714284</v>
+        <v>0.1153518594704576</v>
       </c>
       <c r="M3">
-        <v>2.416397540675146</v>
+        <v>2.416397540675694</v>
       </c>
       <c r="N3">
-        <v>0.8462512019154312</v>
+        <v>0.9383262346624903</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.000000000000685</v>
       </c>
       <c r="P3">
-        <v>0.8462512019153683</v>
+        <v>0.9349090119114009</v>
       </c>
       <c r="Q3">
-        <v>0.06185191726095315</v>
+        <v>32.43040058768669</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S3">
-        <v>-179.9381480828084</v>
+        <v>147.9007199697427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5386,58 +5386,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.5758500660696473</v>
       </c>
       <c r="C4">
-        <v>3.09167519575311</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3.154004807858018</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6.649343813163494</v>
       </c>
       <c r="F4">
-        <v>35.69959013029894</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>36.41931049684402</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.930129586411855</v>
+        <v>7.930129586411966</v>
       </c>
       <c r="I4">
-        <v>53.2797368181057</v>
+        <v>53.27973681810541</v>
       </c>
       <c r="J4">
-        <v>1.113751880243465</v>
+        <v>1.113751880280625</v>
       </c>
       <c r="K4">
-        <v>3.006397543763111</v>
+        <v>3.006397543745789</v>
       </c>
       <c r="L4">
-        <v>1.113751880233429</v>
+        <v>1.11375188023268</v>
       </c>
       <c r="M4">
-        <v>3.006397543745002</v>
+        <v>3.006397543745516</v>
       </c>
       <c r="N4">
-        <v>0.8415023556278634</v>
+        <v>0.9318568163576775</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.000000000000504</v>
       </c>
       <c r="P4">
-        <v>0.8415023556280455</v>
+        <v>0.9134414119943058</v>
       </c>
       <c r="Q4">
-        <v>0.3405644958599032</v>
+        <v>33.69670351315943</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-89.99999999999764</v>
       </c>
       <c r="S4">
-        <v>-179.6594355045004</v>
+        <v>148.0769760729986</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5445,58 +5445,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5336417768137518</v>
       </c>
       <c r="C5">
-        <v>2.36536255845344</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.438396203888634</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6.161964469884996</v>
       </c>
       <c r="F5">
-        <v>27.31285419708312</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>28.1561740941213</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439121</v>
+        <v>15.19611505439136</v>
       </c>
       <c r="I5">
-        <v>54.74848265373478</v>
+        <v>54.74848265373448</v>
       </c>
       <c r="J5">
-        <v>2.112151900861305</v>
+        <v>2.112151900898686</v>
       </c>
       <c r="K5">
-        <v>3.596397547105719</v>
+        <v>3.596397547088388</v>
       </c>
       <c r="L5">
-        <v>2.112151900851268</v>
+        <v>2.112151900850747</v>
       </c>
       <c r="M5">
-        <v>3.596397547087705</v>
+        <v>3.596397547088213</v>
       </c>
       <c r="N5">
-        <v>0.8363278178308594</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="P5">
-        <v>0.836327817831066</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="Q5">
-        <v>0.5226334985301927</v>
+        <v>34.72451398956279</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-89.99999999999751</v>
       </c>
       <c r="S5">
-        <v>-179.4773665018747</v>
+        <v>147.9167939911928</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5504,58 +5504,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.5336417768137517</v>
       </c>
       <c r="C6">
-        <v>2.36536255845344</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.438396203888634</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6.161964469884995</v>
       </c>
       <c r="F6">
-        <v>27.31285419708312</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>28.15617409412128</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>15.19611505439117</v>
+        <v>15.19611505439135</v>
       </c>
       <c r="I6">
-        <v>54.7484826537348</v>
+        <v>54.74848265373451</v>
       </c>
       <c r="J6">
-        <v>2.112151900861293</v>
+        <v>2.112151900898694</v>
       </c>
       <c r="K6">
-        <v>3.596397547105719</v>
+        <v>3.596397547088384</v>
       </c>
       <c r="L6">
-        <v>2.112151900851274</v>
+        <v>2.112151900850749</v>
       </c>
       <c r="M6">
-        <v>3.596397547087707</v>
+        <v>3.596397547088209</v>
       </c>
       <c r="N6">
-        <v>0.8363278178308589</v>
+        <v>0.9217671087583323</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.000000000000353</v>
       </c>
       <c r="P6">
-        <v>0.8363278178310662</v>
+        <v>0.8941587930599413</v>
       </c>
       <c r="Q6">
-        <v>0.5226334985302036</v>
+        <v>34.72451398956279</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-89.99999999999751</v>
       </c>
       <c r="S6">
-        <v>-179.4773665018747</v>
+        <v>147.9167939911928</v>
       </c>
     </row>
   </sheetData>
@@ -5635,58 +5635,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756734</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876777</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.50499372124624</v>
+        <v>1.504993722648796</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384415</v>
+        <v>0.7472997527351803</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802283</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5694,58 +5694,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4735666430153904</v>
       </c>
       <c r="C3">
-        <v>1.052000250472812</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.182253799695274</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.468276576483261</v>
       </c>
       <c r="F3">
-        <v>12.14745255596064</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.65149099009048</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232806575</v>
+        <v>0.02360758232812063</v>
       </c>
       <c r="I3">
-        <v>51.70817167030353</v>
+        <v>51.7081716703032</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814825</v>
+        <v>0.1153518595183985</v>
       </c>
       <c r="K3">
-        <v>2.416397540693375</v>
+        <v>2.416397540676058</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714284</v>
+        <v>0.1153518594704576</v>
       </c>
       <c r="M3">
-        <v>2.416397540675146</v>
+        <v>2.416397540675694</v>
       </c>
       <c r="N3">
-        <v>0.9969372067204435</v>
+        <v>0.9466316679700786</v>
       </c>
       <c r="O3">
-        <v>0.784852101414068</v>
+        <v>1.000000000000384</v>
       </c>
       <c r="P3">
-        <v>0.8690725778910023</v>
+        <v>0.9563641300866161</v>
       </c>
       <c r="Q3">
-        <v>22.69524639203599</v>
+        <v>31.22539301801772</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-89.99999999999746</v>
       </c>
       <c r="S3">
-        <v>153.5353035652773</v>
+        <v>147.825720560688</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -5753,58 +5753,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4416440016015837</v>
       </c>
       <c r="C4">
-        <v>0.9482639053405527</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.052567383293127</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.099665664213158</v>
       </c>
       <c r="F4">
-        <v>10.94960842022348</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.15400124169014</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.930129586411855</v>
+        <v>7.930129586411966</v>
       </c>
       <c r="I4">
-        <v>53.2797368181057</v>
+        <v>53.27973681810541</v>
       </c>
       <c r="J4">
-        <v>1.113751880243465</v>
+        <v>1.113751880280625</v>
       </c>
       <c r="K4">
-        <v>3.006397543763111</v>
+        <v>3.006397543745789</v>
       </c>
       <c r="L4">
-        <v>1.113751880233429</v>
+        <v>1.11375188023268</v>
       </c>
       <c r="M4">
-        <v>3.006397543745002</v>
+        <v>3.006397543745516</v>
       </c>
       <c r="N4">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="P4">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="Q4">
-        <v>21.44662537309587</v>
+        <v>32.2619521624999</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041895</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S4">
-        <v>156.5800438134807</v>
+        <v>147.9447511468697</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5812,58 +5812,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4109764844776729</v>
       </c>
       <c r="C5">
-        <v>0.8628244194424142</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9457031949250926</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.74554767887581</v>
       </c>
       <c r="F5">
-        <v>9.963038216569208</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.92003988326983</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439121</v>
+        <v>15.19611505439136</v>
       </c>
       <c r="I5">
-        <v>54.74848265373478</v>
+        <v>54.74848265373448</v>
       </c>
       <c r="J5">
-        <v>2.112151900861305</v>
+        <v>2.112151900898686</v>
       </c>
       <c r="K5">
-        <v>3.596397547105719</v>
+        <v>3.596397547088388</v>
       </c>
       <c r="L5">
-        <v>2.112151900851268</v>
+        <v>2.112151900850747</v>
       </c>
       <c r="M5">
-        <v>3.596397547087705</v>
+        <v>3.596397547088213</v>
       </c>
       <c r="N5">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442658</v>
       </c>
       <c r="O5">
-        <v>0.6337732350778232</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="P5">
-        <v>0.8677743776472471</v>
+        <v>0.9221519848974011</v>
       </c>
       <c r="Q5">
-        <v>20.20478536459425</v>
+        <v>33.1213710674494</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811364</v>
+        <v>-89.99999999999721</v>
       </c>
       <c r="S5">
-        <v>159.0090121585893</v>
+        <v>147.8611386207801</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5871,58 +5871,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4109764844776727</v>
       </c>
       <c r="C6">
-        <v>0.8628244194424139</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9457031949250921</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.745547678875808</v>
       </c>
       <c r="F6">
-        <v>9.963038216569206</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.92003988326982</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>15.19611505439117</v>
+        <v>15.19611505439135</v>
       </c>
       <c r="I6">
-        <v>54.7484826537348</v>
+        <v>54.74848265373451</v>
       </c>
       <c r="J6">
-        <v>2.112151900861293</v>
+        <v>2.112151900898694</v>
       </c>
       <c r="K6">
-        <v>3.596397547105719</v>
+        <v>3.596397547088384</v>
       </c>
       <c r="L6">
-        <v>2.112151900851274</v>
+        <v>2.112151900850749</v>
       </c>
       <c r="M6">
-        <v>3.596397547087707</v>
+        <v>3.596397547088209</v>
       </c>
       <c r="N6">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442657</v>
       </c>
       <c r="O6">
-        <v>0.6337732350778236</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="P6">
-        <v>0.867774377647247</v>
+        <v>0.9221519848974012</v>
       </c>
       <c r="Q6">
-        <v>20.20478536459426</v>
+        <v>33.1213710674494</v>
       </c>
       <c r="R6">
-        <v>-95.39765209811362</v>
+        <v>-89.9999999999972</v>
       </c>
       <c r="S6">
-        <v>159.0090121585893</v>
+        <v>147.8611386207801</v>
       </c>
     </row>
   </sheetData>
@@ -6002,58 +6002,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.012913138756734</v>
       </c>
       <c r="C2">
-        <v>3.012913138951925</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.012913138593917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>191.3456832876777</v>
       </c>
       <c r="F2">
-        <v>191.345683300074</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>191.3456832773375</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
-        <v>15.04993697142947</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.50499372124624</v>
+        <v>1.504993722648796</v>
       </c>
       <c r="K2">
-        <v>15.04993697324838</v>
+        <v>15.04993697229389</v>
       </c>
       <c r="L2">
-        <v>1.504993720695301</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229334</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.7472997527192564</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689601</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.6184267550384415</v>
+        <v>0.7472997527351803</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802283</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-117.0248837767962</v>
+        <v>-89.99999999999653</v>
       </c>
       <c r="S2">
-        <v>161.7746336318227</v>
+        <v>128.1091583196818</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6061,58 +6061,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.4735666430153904</v>
       </c>
       <c r="C3">
-        <v>1.052000250472812</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.182253799695274</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5.468276576483261</v>
       </c>
       <c r="F3">
-        <v>12.14745255596064</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.65149099009048</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02360758232806575</v>
+        <v>0.02360758232812063</v>
       </c>
       <c r="I3">
-        <v>51.70817167030353</v>
+        <v>51.7081716703032</v>
       </c>
       <c r="J3">
-        <v>0.1153518594814825</v>
+        <v>0.1153518595183985</v>
       </c>
       <c r="K3">
-        <v>2.416397540693375</v>
+        <v>2.416397540676058</v>
       </c>
       <c r="L3">
-        <v>0.1153518594714284</v>
+        <v>0.1153518594704576</v>
       </c>
       <c r="M3">
-        <v>2.416397540675146</v>
+        <v>2.416397540675694</v>
       </c>
       <c r="N3">
-        <v>0.9969372067204435</v>
+        <v>0.9466316679700786</v>
       </c>
       <c r="O3">
-        <v>0.784852101414068</v>
+        <v>1.000000000000384</v>
       </c>
       <c r="P3">
-        <v>0.8690725778910023</v>
+        <v>0.9563641300866161</v>
       </c>
       <c r="Q3">
-        <v>22.69524639203599</v>
+        <v>31.22539301801772</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786927</v>
+        <v>-89.99999999999746</v>
       </c>
       <c r="S3">
-        <v>153.5353035652773</v>
+        <v>147.825720560688</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6120,58 +6120,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.4416440016015837</v>
       </c>
       <c r="C4">
-        <v>0.9482639053405527</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.052567383293127</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5.099665664213158</v>
       </c>
       <c r="F4">
-        <v>10.94960842022348</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>12.15400124169014</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>7.930129586411855</v>
+        <v>7.930129586411966</v>
       </c>
       <c r="I4">
-        <v>53.2797368181057</v>
+        <v>53.27973681810541</v>
       </c>
       <c r="J4">
-        <v>1.113751880243465</v>
+        <v>1.113751880280625</v>
       </c>
       <c r="K4">
-        <v>3.006397543763111</v>
+        <v>3.006397543745789</v>
       </c>
       <c r="L4">
-        <v>1.113751880233429</v>
+        <v>1.11375188023268</v>
       </c>
       <c r="M4">
-        <v>3.006397543745002</v>
+        <v>3.006397543745516</v>
       </c>
       <c r="N4">
-        <v>0.9574739501892685</v>
+        <v>0.9404460387014988</v>
       </c>
       <c r="O4">
-        <v>0.7019303077934761</v>
+        <v>1.000000000000275</v>
       </c>
       <c r="P4">
-        <v>0.8695631603227794</v>
+        <v>0.9383153127336428</v>
       </c>
       <c r="Q4">
-        <v>21.44662537309587</v>
+        <v>32.2619521624999</v>
       </c>
       <c r="R4">
-        <v>-97.63434507041895</v>
+        <v>-89.99999999999736</v>
       </c>
       <c r="S4">
-        <v>156.5800438134807</v>
+        <v>147.9447511468697</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6179,58 +6179,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.4109764844776729</v>
       </c>
       <c r="C5">
-        <v>0.8628244194424142</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9457031949250926</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4.74554767887581</v>
       </c>
       <c r="F5">
-        <v>9.963038216569208</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10.92003988326983</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>15.19611505439121</v>
+        <v>15.19611505439136</v>
       </c>
       <c r="I5">
-        <v>54.74848265373478</v>
+        <v>54.74848265373448</v>
       </c>
       <c r="J5">
-        <v>2.112151900861305</v>
+        <v>2.112151900898686</v>
       </c>
       <c r="K5">
-        <v>3.596397547105719</v>
+        <v>3.596397547088388</v>
       </c>
       <c r="L5">
-        <v>2.112151900851268</v>
+        <v>2.112151900850747</v>
       </c>
       <c r="M5">
-        <v>3.596397547087705</v>
+        <v>3.596397547088213</v>
       </c>
       <c r="N5">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442658</v>
       </c>
       <c r="O5">
-        <v>0.6337732350778232</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="P5">
-        <v>0.8677743776472471</v>
+        <v>0.9221519848974011</v>
       </c>
       <c r="Q5">
-        <v>20.20478536459425</v>
+        <v>33.1213710674494</v>
       </c>
       <c r="R5">
-        <v>-95.39765209811364</v>
+        <v>-89.99999999999721</v>
       </c>
       <c r="S5">
-        <v>159.0090121585893</v>
+        <v>147.8611386207801</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6238,58 +6238,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.4109764844776727</v>
       </c>
       <c r="C6">
-        <v>0.8628244194424139</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9457031949250921</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.745547678875808</v>
       </c>
       <c r="F6">
-        <v>9.963038216569206</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>10.92003988326982</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>15.19611505439117</v>
+        <v>15.19611505439135</v>
       </c>
       <c r="I6">
-        <v>54.7484826537348</v>
+        <v>54.74848265373451</v>
       </c>
       <c r="J6">
-        <v>2.112151900861293</v>
+        <v>2.112151900898694</v>
       </c>
       <c r="K6">
-        <v>3.596397547105719</v>
+        <v>3.596397547088384</v>
       </c>
       <c r="L6">
-        <v>2.112151900851274</v>
+        <v>2.112151900850749</v>
       </c>
       <c r="M6">
-        <v>3.596397547087707</v>
+        <v>3.596397547088209</v>
       </c>
       <c r="N6">
-        <v>0.9268372424913426</v>
+        <v>0.9323327307442657</v>
       </c>
       <c r="O6">
-        <v>0.6337732350778236</v>
+        <v>1.00000000000019</v>
       </c>
       <c r="P6">
-        <v>0.867774377647247</v>
+        <v>0.9221519848974012</v>
       </c>
       <c r="Q6">
-        <v>20.20478536459426</v>
+        <v>33.1213710674494</v>
       </c>
       <c r="R6">
-        <v>-95.39765209811362</v>
+        <v>-89.9999999999972</v>
       </c>
       <c r="S6">
-        <v>159.0090121585893</v>
+        <v>147.8611386207801</v>
       </c>
     </row>
   </sheetData>
@@ -6369,58 +6369,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526411</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
-        <v>333.3333522405613</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453497101</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186052</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740162</v>
+        <v>0.6350853098347086</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409386</v>
+        <v>0.6350853098507081</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685333</v>
+        <v>-4.877399888999562E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6428,58 +6428,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6766793457496076</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.755177813373823</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.771521585631098</v>
       </c>
       <c r="E3">
-        <v>7.813620048471916</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.90806381191826</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>55.0967854381645</v>
       </c>
       <c r="H3">
-        <v>0.0122899132933383</v>
+        <v>0.01228991329336963</v>
       </c>
       <c r="I3">
-        <v>51.69459002692055</v>
+        <v>51.69459002692074</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235368</v>
+        <v>0.1077319054037712</v>
       </c>
       <c r="K3">
-        <v>2.308438694643206</v>
+        <v>2.308438694626174</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054135518</v>
       </c>
       <c r="M3">
-        <v>2.308438694642835</v>
+        <v>2.308438694642247</v>
       </c>
       <c r="N3">
-        <v>1.034862894271765</v>
+        <v>0.9318218419616013</v>
       </c>
       <c r="O3">
-        <v>1.100000023842451</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.031318204562458</v>
+        <v>0.9318218419626179</v>
       </c>
       <c r="Q3">
-        <v>32.32277567180757</v>
+        <v>0.05810097842053325</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999773</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9898092982805</v>
+        <v>-179.9418990215748</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6487,58 +6487,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6419915686052314</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.690286004605432</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.735982987435709</v>
       </c>
       <c r="E4">
-        <v>7.413080099034009</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.61175236291309</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>43.13941566967738</v>
       </c>
       <c r="H4">
-        <v>4.130372151309053</v>
+        <v>4.13037215130906</v>
       </c>
       <c r="I4">
-        <v>53.31280873460585</v>
+        <v>53.312808734606</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743572</v>
+        <v>0.6277319163544335</v>
       </c>
       <c r="K4">
-        <v>2.898438697960263</v>
+        <v>2.898438697943253</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.62773191636425</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.898438697959375</v>
       </c>
       <c r="N4">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="O4">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="Q4">
-        <v>33.2032868447533</v>
+        <v>0.2095971264322447</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>147.8970114821342</v>
+        <v>-179.7904028735454</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6546,58 +6546,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.608492552196106</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.971863591106537</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.027772914345712</v>
       </c>
       <c r="E5">
-        <v>7.026266776206084</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.31612488640415</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.9617101428511</v>
       </c>
       <c r="H5">
-        <v>7.914819502322251</v>
+        <v>7.914819502322236</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J5">
-        <v>1.147731927081503</v>
+        <v>1.147731927161463</v>
       </c>
       <c r="K5">
-        <v>3.488438701416382</v>
+        <v>3.488438701399368</v>
       </c>
       <c r="L5">
-        <v>1.147731927170444</v>
+        <v>1.147731927171276</v>
       </c>
       <c r="M5">
-        <v>3.488438701416124</v>
+        <v>3.488438701415544</v>
       </c>
       <c r="N5">
-        <v>1.015377306145668</v>
+        <v>0.9224887204894726</v>
       </c>
       <c r="O5">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="Q5">
-        <v>33.95614305147019</v>
+        <v>0.3192929610913485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.6794363569783</v>
+        <v>-179.6807070388815</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6605,58 +6605,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6084925521961055</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.971863591106533</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.027772914345709</v>
       </c>
       <c r="E6">
-        <v>7.02626677620608</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>34.3161248864041</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>34.96171014285106</v>
       </c>
       <c r="H6">
-        <v>7.91481950232227</v>
+        <v>7.914819502322266</v>
       </c>
       <c r="I6">
-        <v>54.8073047679534</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J6">
-        <v>1.147731927081495</v>
+        <v>1.147731927161471</v>
       </c>
       <c r="K6">
-        <v>3.488438701416382</v>
+        <v>3.48843870139937</v>
       </c>
       <c r="L6">
-        <v>1.147731927170457</v>
+        <v>1.147731927171268</v>
       </c>
       <c r="M6">
-        <v>3.488438701416126</v>
+        <v>3.488438701415554</v>
       </c>
       <c r="N6">
-        <v>1.015377306145669</v>
+        <v>0.9224887204894725</v>
       </c>
       <c r="O6">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="Q6">
-        <v>33.95614305147019</v>
+        <v>0.3192929610913932</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999757</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.6794363569783</v>
+        <v>-179.6807070388816</v>
       </c>
     </row>
   </sheetData>
@@ -6736,58 +6736,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.248639108526411</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
-        <v>333.3333522405613</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453497101</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186052</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740162</v>
+        <v>0.6350853098347086</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853099409386</v>
+        <v>0.6350853098507081</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685333</v>
+        <v>-4.877399888999562E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>179.999999996043</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6795,58 +6795,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6766793457496076</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.755177813373823</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.771521585631098</v>
       </c>
       <c r="E3">
-        <v>7.813620048471916</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>54.90806381191826</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>55.0967854381645</v>
       </c>
       <c r="H3">
-        <v>0.0122899132933383</v>
+        <v>0.01228991329336963</v>
       </c>
       <c r="I3">
-        <v>51.69459002692055</v>
+        <v>51.69459002692074</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235368</v>
+        <v>0.1077319054037712</v>
       </c>
       <c r="K3">
-        <v>2.308438694643206</v>
+        <v>2.308438694626174</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054135518</v>
       </c>
       <c r="M3">
-        <v>2.308438694642835</v>
+        <v>2.308438694642247</v>
       </c>
       <c r="N3">
-        <v>1.034862894271765</v>
+        <v>0.9318218419616013</v>
       </c>
       <c r="O3">
-        <v>1.100000023842451</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.031318204562458</v>
+        <v>0.9318218419626179</v>
       </c>
       <c r="Q3">
-        <v>32.32277567180757</v>
+        <v>0.05810097842053325</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999773</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9898092982805</v>
+        <v>-179.9418990215748</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -6854,58 +6854,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6419915686052314</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.690286004605432</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.735982987435709</v>
       </c>
       <c r="E4">
-        <v>7.413080099034009</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>42.61175236291309</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>43.13941566967738</v>
       </c>
       <c r="H4">
-        <v>4.130372151309053</v>
+        <v>4.13037215130906</v>
       </c>
       <c r="I4">
-        <v>53.31280873460585</v>
+        <v>53.312808734606</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743572</v>
+        <v>0.6277319163544335</v>
       </c>
       <c r="K4">
-        <v>2.898438697960263</v>
+        <v>2.898438697943253</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.62773191636425</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.898438697959375</v>
       </c>
       <c r="N4">
-        <v>1.025589789387375</v>
+        <v>0.9271486224980959</v>
       </c>
       <c r="O4">
-        <v>1.100000023842561</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.013045203623771</v>
+        <v>0.9271486225001982</v>
       </c>
       <c r="Q4">
-        <v>33.2032868447533</v>
+        <v>0.2095971264322447</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>147.8970114821342</v>
+        <v>-179.7904028735454</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6913,58 +6913,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.608492552196106</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.971863591106537</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>3.027772914345712</v>
       </c>
       <c r="E5">
-        <v>7.026266776206084</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>34.31612488640415</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>34.9617101428511</v>
       </c>
       <c r="H5">
-        <v>7.914819502322251</v>
+        <v>7.914819502322236</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J5">
-        <v>1.147731927081503</v>
+        <v>1.147731927161463</v>
       </c>
       <c r="K5">
-        <v>3.488438701416382</v>
+        <v>3.488438701399368</v>
       </c>
       <c r="L5">
-        <v>1.147731927170444</v>
+        <v>1.147731927171276</v>
       </c>
       <c r="M5">
-        <v>3.488438701416124</v>
+        <v>3.488438701415544</v>
       </c>
       <c r="N5">
-        <v>1.015377306145668</v>
+        <v>0.9224887204894726</v>
       </c>
       <c r="O5">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="Q5">
-        <v>33.95614305147019</v>
+        <v>0.3192929610913485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.6794363569783</v>
+        <v>-179.6807070388815</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6972,58 +6972,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6084925521961055</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.971863591106533</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.027772914345709</v>
       </c>
       <c r="E6">
-        <v>7.02626677620608</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>34.3161248864041</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>34.96171014285106</v>
       </c>
       <c r="H6">
-        <v>7.91481950232227</v>
+        <v>7.914819502322266</v>
       </c>
       <c r="I6">
-        <v>54.8073047679534</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J6">
-        <v>1.147731927081495</v>
+        <v>1.147731927161471</v>
       </c>
       <c r="K6">
-        <v>3.488438701416382</v>
+        <v>3.48843870139937</v>
       </c>
       <c r="L6">
-        <v>1.147731927170457</v>
+        <v>1.147731927171268</v>
       </c>
       <c r="M6">
-        <v>3.488438701416126</v>
+        <v>3.488438701415554</v>
       </c>
       <c r="N6">
-        <v>1.015377306145669</v>
+        <v>0.9224887204894725</v>
       </c>
       <c r="O6">
-        <v>1.100000023842633</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9966278623711199</v>
+        <v>0.9224887204918465</v>
       </c>
       <c r="Q6">
-        <v>33.95614305147019</v>
+        <v>0.3192929610913932</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999757</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.6794363569783</v>
+        <v>-179.6807070388816</v>
       </c>
     </row>
   </sheetData>
@@ -7103,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453497101</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186052</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278031</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898907</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966809</v>
+        <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604943</v>
+        <v>8.957471693504782</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7162,58 +7162,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5225663212317312</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.168865746753678</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.314061716337848</v>
       </c>
       <c r="E3">
-        <v>6.03407612465145</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13.49689907069538</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>15.17347771318876</v>
       </c>
       <c r="H3">
-        <v>0.0122899132933383</v>
+        <v>0.01228991329336963</v>
       </c>
       <c r="I3">
-        <v>51.69459002692055</v>
+        <v>51.69459002692074</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235368</v>
+        <v>0.1077319054037712</v>
       </c>
       <c r="K3">
-        <v>2.308438694643206</v>
+        <v>2.308438694626174</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054135518</v>
       </c>
       <c r="M3">
-        <v>2.308438694642835</v>
+        <v>2.308438694642247</v>
       </c>
       <c r="N3">
-        <v>1.043702907371753</v>
+        <v>1.097621028582164</v>
       </c>
       <c r="O3">
-        <v>1.100000023842581</v>
+        <v>0.8723446855797308</v>
       </c>
       <c r="P3">
-        <v>1.054025734328035</v>
+        <v>0.9605330069427555</v>
       </c>
       <c r="Q3">
-        <v>31.16732341457357</v>
+        <v>22.9541761523928</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999744</v>
+        <v>-100.051016339622</v>
       </c>
       <c r="S3">
-        <v>147.9169914318448</v>
+        <v>153.34643795268</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7221,58 +7221,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4957576224237676</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.080316732488507</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.204570439751576</v>
       </c>
       <c r="E4">
-        <v>5.724515935183422</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12.47442312624593</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.90918135296877</v>
       </c>
       <c r="H4">
-        <v>4.130372151309053</v>
+        <v>4.13037215130906</v>
       </c>
       <c r="I4">
-        <v>53.31280873460585</v>
+        <v>53.312808734606</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743572</v>
+        <v>0.6277319163544335</v>
       </c>
       <c r="K4">
-        <v>2.898438697960263</v>
+        <v>2.898438697943253</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.62773191636425</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.898438697959375</v>
       </c>
       <c r="N4">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="O4">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="P4">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="Q4">
-        <v>31.83778581150034</v>
+        <v>21.66776978529776</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999737</v>
+        <v>-99.52967390015473</v>
       </c>
       <c r="S4">
-        <v>147.7825912654873</v>
+        <v>155.4333530898804</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7280,58 +7280,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4714994675902702</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.004677087141675</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.111444801162599</v>
       </c>
       <c r="E5">
-        <v>5.444406890720154</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11.6010117341979</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.83385910281274</v>
       </c>
       <c r="H5">
-        <v>7.914819502322251</v>
+        <v>7.914819502322236</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J5">
-        <v>1.147731927081503</v>
+        <v>1.147731927161463</v>
       </c>
       <c r="K5">
-        <v>3.488438701416382</v>
+        <v>3.488438701399368</v>
       </c>
       <c r="L5">
-        <v>1.147731927170444</v>
+        <v>1.147731927171276</v>
       </c>
       <c r="M5">
-        <v>3.488438701416124</v>
+        <v>3.488438701415544</v>
       </c>
       <c r="N5">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="O5">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="P5">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="Q5">
-        <v>32.42077233922407</v>
+        <v>20.50747906418568</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-99.08615255180601</v>
       </c>
       <c r="S5">
-        <v>147.5842645502669</v>
+        <v>157.2132384620389</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7339,58 +7339,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.47149946759027</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.004677087141673</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.111444801162599</v>
       </c>
       <c r="E6">
-        <v>5.444406890720153</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11.60101173419789</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.83385910281273</v>
       </c>
       <c r="H6">
-        <v>7.91481950232227</v>
+        <v>7.914819502322266</v>
       </c>
       <c r="I6">
-        <v>54.8073047679534</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J6">
-        <v>1.147731927081495</v>
+        <v>1.147731927161471</v>
       </c>
       <c r="K6">
-        <v>3.488438701416382</v>
+        <v>3.48843870139937</v>
       </c>
       <c r="L6">
-        <v>1.147731927170457</v>
+        <v>1.147731927171268</v>
       </c>
       <c r="M6">
-        <v>3.488438701416126</v>
+        <v>3.488438701415554</v>
       </c>
       <c r="N6">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="O6">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="P6">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="Q6">
-        <v>32.42077233922407</v>
+        <v>20.50747906418569</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-99.08615255180599</v>
       </c>
       <c r="S6">
-        <v>147.5842645502669</v>
+        <v>157.2132384620389</v>
       </c>
     </row>
   </sheetData>
@@ -7470,58 +7470,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.617960382473001</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
-        <v>229.7713440812008</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.32439447741944</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453497101</v>
       </c>
       <c r="J2">
-        <v>1.324394473163433</v>
+        <v>1.324394474186052</v>
       </c>
       <c r="K2">
-        <v>13.24394453564037</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
-        <v>13.24394453563962</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6918398877278031</v>
+        <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>0.4028253111898907</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966809</v>
+        <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604943</v>
+        <v>8.957471693504782</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>128.9574716956184</v>
+        <v>160.4095179569557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7529,58 +7529,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5225663212317312</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.168865746753678</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.314061716337848</v>
       </c>
       <c r="E3">
-        <v>6.03407612465145</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>13.49689907069538</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>15.17347771318876</v>
       </c>
       <c r="H3">
-        <v>0.0122899132933383</v>
+        <v>0.01228991329336963</v>
       </c>
       <c r="I3">
-        <v>51.69459002692055</v>
+        <v>51.69459002692074</v>
       </c>
       <c r="J3">
-        <v>0.1077319053235368</v>
+        <v>0.1077319054037712</v>
       </c>
       <c r="K3">
-        <v>2.308438694643206</v>
+        <v>2.308438694626174</v>
       </c>
       <c r="L3">
-        <v>0.1077319054125031</v>
+        <v>0.1077319054135518</v>
       </c>
       <c r="M3">
-        <v>2.308438694642835</v>
+        <v>2.308438694642247</v>
       </c>
       <c r="N3">
-        <v>1.043702907371753</v>
+        <v>1.097621028582164</v>
       </c>
       <c r="O3">
-        <v>1.100000023842581</v>
+        <v>0.8723446855797308</v>
       </c>
       <c r="P3">
-        <v>1.054025734328035</v>
+        <v>0.9605330069427555</v>
       </c>
       <c r="Q3">
-        <v>31.16732341457357</v>
+        <v>22.9541761523928</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999744</v>
+        <v>-100.051016339622</v>
       </c>
       <c r="S3">
-        <v>147.9169914318448</v>
+        <v>153.34643795268</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7588,58 +7588,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4957576224237676</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.080316732488507</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.204570439751576</v>
       </c>
       <c r="E4">
-        <v>5.724515935183422</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12.47442312624593</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>13.90918135296877</v>
       </c>
       <c r="H4">
-        <v>4.130372151309053</v>
+        <v>4.13037215130906</v>
       </c>
       <c r="I4">
-        <v>53.31280873460585</v>
+        <v>53.312808734606</v>
       </c>
       <c r="J4">
-        <v>0.6277319162743572</v>
+        <v>0.6277319163544335</v>
       </c>
       <c r="K4">
-        <v>2.898438697960263</v>
+        <v>2.898438697943253</v>
       </c>
       <c r="L4">
-        <v>0.6277319163632944</v>
+        <v>0.62773191636425</v>
       </c>
       <c r="M4">
-        <v>2.898438697959953</v>
+        <v>2.898438697959375</v>
       </c>
       <c r="N4">
-        <v>1.034939813087541</v>
+        <v>1.07252753235464</v>
       </c>
       <c r="O4">
-        <v>1.10000002384261</v>
+        <v>0.8020156209370756</v>
       </c>
       <c r="P4">
-        <v>1.039238165307004</v>
+        <v>0.9499542621949204</v>
       </c>
       <c r="Q4">
-        <v>31.83778581150034</v>
+        <v>21.66776978529776</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999737</v>
+        <v>-99.52967390015473</v>
       </c>
       <c r="S4">
-        <v>147.7825912654873</v>
+        <v>155.4333530898804</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7647,58 +7647,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4714994675902702</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.004677087141675</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.111444801162599</v>
       </c>
       <c r="E5">
-        <v>5.444406890720154</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11.6010117341979</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>12.83385910281274</v>
       </c>
       <c r="H5">
-        <v>7.914819502322251</v>
+        <v>7.914819502322236</v>
       </c>
       <c r="I5">
-        <v>54.80730476795337</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J5">
-        <v>1.147731927081503</v>
+        <v>1.147731927161463</v>
       </c>
       <c r="K5">
-        <v>3.488438701416382</v>
+        <v>3.488438701399368</v>
       </c>
       <c r="L5">
-        <v>1.147731927170444</v>
+        <v>1.147731927171276</v>
       </c>
       <c r="M5">
-        <v>3.488438701416124</v>
+        <v>3.488438701415544</v>
       </c>
       <c r="N5">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="O5">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="P5">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="Q5">
-        <v>32.42077233922407</v>
+        <v>20.50747906418568</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999729</v>
+        <v>-99.08615255180601</v>
       </c>
       <c r="S5">
-        <v>147.5842645502669</v>
+        <v>157.2132384620389</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -7706,58 +7706,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.47149946759027</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.004677087141673</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.111444801162599</v>
       </c>
       <c r="E6">
-        <v>5.444406890720153</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11.60101173419789</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>12.83385910281273</v>
       </c>
       <c r="H6">
-        <v>7.91481950232227</v>
+        <v>7.914819502322266</v>
       </c>
       <c r="I6">
-        <v>54.8073047679534</v>
+        <v>54.80730476795357</v>
       </c>
       <c r="J6">
-        <v>1.147731927081495</v>
+        <v>1.147731927161471</v>
       </c>
       <c r="K6">
-        <v>3.488438701416382</v>
+        <v>3.48843870139937</v>
       </c>
       <c r="L6">
-        <v>1.147731927170457</v>
+        <v>1.147731927171268</v>
       </c>
       <c r="M6">
-        <v>3.488438701416126</v>
+        <v>3.488438701415554</v>
       </c>
       <c r="N6">
-        <v>1.025964767138687</v>
+        <v>1.051434179344487</v>
       </c>
       <c r="O6">
-        <v>1.100000023842624</v>
+        <v>0.7421321146315601</v>
       </c>
       <c r="P6">
-        <v>1.025907490282229</v>
+        <v>0.9410504906318056</v>
       </c>
       <c r="Q6">
-        <v>32.42077233922407</v>
+        <v>20.50747906418569</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999729</v>
+        <v>-99.08615255180599</v>
       </c>
       <c r="S6">
-        <v>147.5842645502669</v>
+        <v>157.2132384620389</v>
       </c>
     </row>
   </sheetData>
@@ -7837,58 +7837,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792622</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
-        <v>266.6666760113624</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.50499372124624</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541777</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647624</v>
+        <v>-5.812877593897075E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -7896,58 +7896,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6126649002611589</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.129369485866963</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.144462906911254</v>
       </c>
       <c r="E3">
-        <v>7.074444901776308</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.68185168497435</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.85613549903263</v>
       </c>
       <c r="H3">
-        <v>0.02360758232812063</v>
+        <v>0.02360758232806575</v>
       </c>
       <c r="I3">
-        <v>51.7081716703032</v>
+        <v>51.70817167030353</v>
       </c>
       <c r="J3">
-        <v>0.1153518595183985</v>
+        <v>0.1153518594814825</v>
       </c>
       <c r="K3">
-        <v>2.416397540676058</v>
+        <v>2.416397540693375</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704576</v>
+        <v>0.1153518594714284</v>
       </c>
       <c r="M3">
-        <v>2.416397540675694</v>
+        <v>2.416397540675146</v>
       </c>
       <c r="N3">
-        <v>0.9383262346624903</v>
+        <v>0.8462512019154312</v>
       </c>
       <c r="O3">
-        <v>1.000000000000685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9349090119114009</v>
+        <v>0.8462512019153683</v>
       </c>
       <c r="Q3">
-        <v>32.43040058768669</v>
+        <v>0.06185191726095315</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9007199697427</v>
+        <v>-179.9381480828084</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -7955,58 +7955,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5758500660696473</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.09167519575311</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.154004807858018</v>
       </c>
       <c r="E4">
-        <v>6.649343813163494</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35.69959013029894</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.41931049684402</v>
       </c>
       <c r="H4">
-        <v>7.930129586411966</v>
+        <v>7.930129586411855</v>
       </c>
       <c r="I4">
-        <v>53.27973681810541</v>
+        <v>53.2797368181057</v>
       </c>
       <c r="J4">
-        <v>1.113751880280625</v>
+        <v>1.113751880243465</v>
       </c>
       <c r="K4">
-        <v>3.006397543745789</v>
+        <v>3.006397543763111</v>
       </c>
       <c r="L4">
-        <v>1.11375188023268</v>
+        <v>1.113751880233429</v>
       </c>
       <c r="M4">
-        <v>3.006397543745516</v>
+        <v>3.006397543745002</v>
       </c>
       <c r="N4">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="O4">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="Q4">
-        <v>33.69670351315943</v>
+        <v>0.3405644958599032</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>148.0769760729986</v>
+        <v>-179.6594355045004</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8014,58 +8014,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5336417768137518</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.36536255845344</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.438396203888634</v>
       </c>
       <c r="E5">
-        <v>6.161964469884996</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.31285419708312</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>28.1561740941213</v>
       </c>
       <c r="H5">
-        <v>15.19611505439136</v>
+        <v>15.19611505439121</v>
       </c>
       <c r="I5">
-        <v>54.74848265373448</v>
+        <v>54.74848265373478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898686</v>
+        <v>2.112151900861305</v>
       </c>
       <c r="K5">
-        <v>3.596397547088388</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L5">
-        <v>2.112151900850747</v>
+        <v>2.112151900851268</v>
       </c>
       <c r="M5">
-        <v>3.596397547088213</v>
+        <v>3.596397547087705</v>
       </c>
       <c r="N5">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308594</v>
       </c>
       <c r="O5">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8941587930599413</v>
+        <v>0.836327817831066</v>
       </c>
       <c r="Q5">
-        <v>34.72451398956279</v>
+        <v>0.5226334985301927</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999751</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.9167939911928</v>
+        <v>-179.4773665018747</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8073,58 +8073,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5336417768137517</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.36536255845344</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.438396203888634</v>
       </c>
       <c r="E6">
-        <v>6.161964469884995</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27.31285419708312</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>28.15617409412128</v>
       </c>
       <c r="H6">
-        <v>15.19611505439135</v>
+        <v>15.19611505439117</v>
       </c>
       <c r="I6">
-        <v>54.74848265373451</v>
+        <v>54.7484826537348</v>
       </c>
       <c r="J6">
-        <v>2.112151900898694</v>
+        <v>2.112151900861293</v>
       </c>
       <c r="K6">
-        <v>3.596397547088384</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L6">
-        <v>2.112151900850749</v>
+        <v>2.112151900851274</v>
       </c>
       <c r="M6">
-        <v>3.596397547088209</v>
+        <v>3.596397547087707</v>
       </c>
       <c r="N6">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308589</v>
       </c>
       <c r="O6">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8941587930599413</v>
+        <v>0.8363278178310662</v>
       </c>
       <c r="Q6">
-        <v>34.72451398956279</v>
+        <v>0.5226334985302036</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999751</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.9167939911928</v>
+        <v>-179.4773665018747</v>
       </c>
     </row>
   </sheetData>
@@ -8355,58 +8355,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792622</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
-        <v>266.6666760113624</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.50499372124624</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541777</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647624</v>
+        <v>-5.812877593897075E-09</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>179.9999999936331</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8414,58 +8414,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.6126649002611589</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4.129369485866963</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.144462906911254</v>
       </c>
       <c r="E3">
-        <v>7.074444901776308</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>47.68185168497435</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>47.85613549903263</v>
       </c>
       <c r="H3">
-        <v>0.02360758232812063</v>
+        <v>0.02360758232806575</v>
       </c>
       <c r="I3">
-        <v>51.7081716703032</v>
+        <v>51.70817167030353</v>
       </c>
       <c r="J3">
-        <v>0.1153518595183985</v>
+        <v>0.1153518594814825</v>
       </c>
       <c r="K3">
-        <v>2.416397540676058</v>
+        <v>2.416397540693375</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704576</v>
+        <v>0.1153518594714284</v>
       </c>
       <c r="M3">
-        <v>2.416397540675694</v>
+        <v>2.416397540675146</v>
       </c>
       <c r="N3">
-        <v>0.9383262346624903</v>
+        <v>0.8462512019154312</v>
       </c>
       <c r="O3">
-        <v>1.000000000000685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9349090119114009</v>
+        <v>0.8462512019153683</v>
       </c>
       <c r="Q3">
-        <v>32.43040058768669</v>
+        <v>0.06185191726095315</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999774</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>147.9007199697427</v>
+        <v>-179.9381480828084</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8473,58 +8473,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5758500660696473</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.09167519575311</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3.154004807858018</v>
       </c>
       <c r="E4">
-        <v>6.649343813163494</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35.69959013029894</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>36.41931049684402</v>
       </c>
       <c r="H4">
-        <v>7.930129586411966</v>
+        <v>7.930129586411855</v>
       </c>
       <c r="I4">
-        <v>53.27973681810541</v>
+        <v>53.2797368181057</v>
       </c>
       <c r="J4">
-        <v>1.113751880280625</v>
+        <v>1.113751880243465</v>
       </c>
       <c r="K4">
-        <v>3.006397543745789</v>
+        <v>3.006397543763111</v>
       </c>
       <c r="L4">
-        <v>1.11375188023268</v>
+        <v>1.113751880233429</v>
       </c>
       <c r="M4">
-        <v>3.006397543745516</v>
+        <v>3.006397543745002</v>
       </c>
       <c r="N4">
-        <v>0.9318568163576775</v>
+        <v>0.8415023556278634</v>
       </c>
       <c r="O4">
-        <v>1.000000000000504</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9134414119943058</v>
+        <v>0.8415023556280455</v>
       </c>
       <c r="Q4">
-        <v>33.69670351315943</v>
+        <v>0.3405644958599032</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999764</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>148.0769760729986</v>
+        <v>-179.6594355045004</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8532,58 +8532,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5336417768137518</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.36536255845344</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.438396203888634</v>
       </c>
       <c r="E5">
-        <v>6.161964469884996</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27.31285419708312</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>28.1561740941213</v>
       </c>
       <c r="H5">
-        <v>15.19611505439136</v>
+        <v>15.19611505439121</v>
       </c>
       <c r="I5">
-        <v>54.74848265373448</v>
+        <v>54.74848265373478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898686</v>
+        <v>2.112151900861305</v>
       </c>
       <c r="K5">
-        <v>3.596397547088388</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L5">
-        <v>2.112151900850747</v>
+        <v>2.112151900851268</v>
       </c>
       <c r="M5">
-        <v>3.596397547088213</v>
+        <v>3.596397547087705</v>
       </c>
       <c r="N5">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308594</v>
       </c>
       <c r="O5">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8941587930599413</v>
+        <v>0.836327817831066</v>
       </c>
       <c r="Q5">
-        <v>34.72451398956279</v>
+        <v>0.5226334985301927</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999751</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>147.9167939911928</v>
+        <v>-179.4773665018747</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8591,58 +8591,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5336417768137517</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.36536255845344</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.438396203888634</v>
       </c>
       <c r="E6">
-        <v>6.161964469884995</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27.31285419708312</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>28.15617409412128</v>
       </c>
       <c r="H6">
-        <v>15.19611505439135</v>
+        <v>15.19611505439117</v>
       </c>
       <c r="I6">
-        <v>54.74848265373451</v>
+        <v>54.7484826537348</v>
       </c>
       <c r="J6">
-        <v>2.112151900898694</v>
+        <v>2.112151900861293</v>
       </c>
       <c r="K6">
-        <v>3.596397547088384</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L6">
-        <v>2.112151900850749</v>
+        <v>2.112151900851274</v>
       </c>
       <c r="M6">
-        <v>3.596397547088209</v>
+        <v>3.596397547087707</v>
       </c>
       <c r="N6">
-        <v>0.9217671087583323</v>
+        <v>0.8363278178308589</v>
       </c>
       <c r="O6">
-        <v>1.000000000000353</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8941587930599413</v>
+        <v>0.8363278178310662</v>
       </c>
       <c r="Q6">
-        <v>34.72451398956279</v>
+        <v>0.5226334985302036</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999751</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>147.9167939911928</v>
+        <v>-179.4773665018747</v>
       </c>
     </row>
   </sheetData>
@@ -8722,58 +8722,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756734</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876777</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.50499372124624</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947472</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351803</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119259</v>
+        <v>8.109158318802283</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -8781,58 +8781,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4735666430153904</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.052000250472812</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.182253799695274</v>
       </c>
       <c r="E3">
-        <v>5.468276576483261</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.14745255596064</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.65149099009048</v>
       </c>
       <c r="H3">
-        <v>0.02360758232812063</v>
+        <v>0.02360758232806575</v>
       </c>
       <c r="I3">
-        <v>51.7081716703032</v>
+        <v>51.70817167030353</v>
       </c>
       <c r="J3">
-        <v>0.1153518595183985</v>
+        <v>0.1153518594814825</v>
       </c>
       <c r="K3">
-        <v>2.416397540676058</v>
+        <v>2.416397540693375</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704576</v>
+        <v>0.1153518594714284</v>
       </c>
       <c r="M3">
-        <v>2.416397540675694</v>
+        <v>2.416397540675146</v>
       </c>
       <c r="N3">
-        <v>0.9466316679700786</v>
+        <v>0.9969372067204435</v>
       </c>
       <c r="O3">
-        <v>1.000000000000384</v>
+        <v>0.784852101414068</v>
       </c>
       <c r="P3">
-        <v>0.9563641300866161</v>
+        <v>0.8690725778910023</v>
       </c>
       <c r="Q3">
-        <v>31.22539301801772</v>
+        <v>22.69524639203599</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-100.4045966786927</v>
       </c>
       <c r="S3">
-        <v>147.825720560688</v>
+        <v>153.5353035652773</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -8840,58 +8840,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4416440016015837</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9482639053405527</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.052567383293127</v>
       </c>
       <c r="E4">
-        <v>5.099665664213158</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.94960842022348</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.15400124169014</v>
       </c>
       <c r="H4">
-        <v>7.930129586411966</v>
+        <v>7.930129586411855</v>
       </c>
       <c r="I4">
-        <v>53.27973681810541</v>
+        <v>53.2797368181057</v>
       </c>
       <c r="J4">
-        <v>1.113751880280625</v>
+        <v>1.113751880243465</v>
       </c>
       <c r="K4">
-        <v>3.006397543745789</v>
+        <v>3.006397543763111</v>
       </c>
       <c r="L4">
-        <v>1.11375188023268</v>
+        <v>1.113751880233429</v>
       </c>
       <c r="M4">
-        <v>3.006397543745516</v>
+        <v>3.006397543745002</v>
       </c>
       <c r="N4">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="O4">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="P4">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="Q4">
-        <v>32.2619521624999</v>
+        <v>21.44662537309587</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999736</v>
+        <v>-97.63434507041895</v>
       </c>
       <c r="S4">
-        <v>147.9447511468697</v>
+        <v>156.5800438134807</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8899,58 +8899,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4109764844776729</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8628244194424142</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9457031949250926</v>
       </c>
       <c r="E5">
-        <v>4.74554767887581</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9.963038216569208</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.92003988326983</v>
       </c>
       <c r="H5">
-        <v>15.19611505439136</v>
+        <v>15.19611505439121</v>
       </c>
       <c r="I5">
-        <v>54.74848265373448</v>
+        <v>54.74848265373478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898686</v>
+        <v>2.112151900861305</v>
       </c>
       <c r="K5">
-        <v>3.596397547088388</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L5">
-        <v>2.112151900850747</v>
+        <v>2.112151900851268</v>
       </c>
       <c r="M5">
-        <v>3.596397547088213</v>
+        <v>3.596397547087705</v>
       </c>
       <c r="N5">
-        <v>0.9323327307442658</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="O5">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778232</v>
       </c>
       <c r="P5">
-        <v>0.9221519848974011</v>
+        <v>0.8677743776472471</v>
       </c>
       <c r="Q5">
-        <v>33.1213710674494</v>
+        <v>20.20478536459425</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999721</v>
+        <v>-95.39765209811364</v>
       </c>
       <c r="S5">
-        <v>147.8611386207801</v>
+        <v>159.0090121585893</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -8958,58 +8958,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4109764844776727</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8628244194424139</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9457031949250921</v>
       </c>
       <c r="E6">
-        <v>4.745547678875808</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9.963038216569206</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.92003988326982</v>
       </c>
       <c r="H6">
-        <v>15.19611505439135</v>
+        <v>15.19611505439117</v>
       </c>
       <c r="I6">
-        <v>54.74848265373451</v>
+        <v>54.7484826537348</v>
       </c>
       <c r="J6">
-        <v>2.112151900898694</v>
+        <v>2.112151900861293</v>
       </c>
       <c r="K6">
-        <v>3.596397547088384</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L6">
-        <v>2.112151900850749</v>
+        <v>2.112151900851274</v>
       </c>
       <c r="M6">
-        <v>3.596397547088209</v>
+        <v>3.596397547087707</v>
       </c>
       <c r="N6">
-        <v>0.9323327307442657</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="O6">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778236</v>
       </c>
       <c r="P6">
-        <v>0.9221519848974012</v>
+        <v>0.867774377647247</v>
       </c>
       <c r="Q6">
-        <v>33.1213710674494</v>
+        <v>20.20478536459426</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999972</v>
+        <v>-95.39765209811362</v>
       </c>
       <c r="S6">
-        <v>147.8611386207801</v>
+        <v>159.0090121585893</v>
       </c>
     </row>
   </sheetData>
@@ -9089,58 +9089,58 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.012913138756734</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.012913138951925</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
-        <v>191.3456832876777</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>191.345683300074</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.50499372497629</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142822</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.504993722648796</v>
+        <v>1.50499372124624</v>
       </c>
       <c r="K2">
-        <v>15.04993697229389</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>1.504993720695426</v>
+        <v>1.504993720695301</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947472</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351803</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>41.77463363119259</v>
+        <v>8.109158318802283</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>128.1091583196818</v>
+        <v>161.7746336318227</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9148,58 +9148,58 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4735666430153904</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.052000250472812</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.182253799695274</v>
       </c>
       <c r="E3">
-        <v>5.468276576483261</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>12.14745255596064</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>13.65149099009048</v>
       </c>
       <c r="H3">
-        <v>0.02360758232812063</v>
+        <v>0.02360758232806575</v>
       </c>
       <c r="I3">
-        <v>51.7081716703032</v>
+        <v>51.70817167030353</v>
       </c>
       <c r="J3">
-        <v>0.1153518595183985</v>
+        <v>0.1153518594814825</v>
       </c>
       <c r="K3">
-        <v>2.416397540676058</v>
+        <v>2.416397540693375</v>
       </c>
       <c r="L3">
-        <v>0.1153518594704576</v>
+        <v>0.1153518594714284</v>
       </c>
       <c r="M3">
-        <v>2.416397540675694</v>
+        <v>2.416397540675146</v>
       </c>
       <c r="N3">
-        <v>0.9466316679700786</v>
+        <v>0.9969372067204435</v>
       </c>
       <c r="O3">
-        <v>1.000000000000384</v>
+        <v>0.784852101414068</v>
       </c>
       <c r="P3">
-        <v>0.9563641300866161</v>
+        <v>0.8690725778910023</v>
       </c>
       <c r="Q3">
-        <v>31.22539301801772</v>
+        <v>22.69524639203599</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999746</v>
+        <v>-100.4045966786927</v>
       </c>
       <c r="S3">
-        <v>147.825720560688</v>
+        <v>153.5353035652773</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -9207,58 +9207,58 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4416440016015837</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9482639053405527</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.052567383293127</v>
       </c>
       <c r="E4">
-        <v>5.099665664213158</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10.94960842022348</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>12.15400124169014</v>
       </c>
       <c r="H4">
-        <v>7.930129586411966</v>
+        <v>7.930129586411855</v>
       </c>
       <c r="I4">
-        <v>53.27973681810541</v>
+        <v>53.2797368181057</v>
       </c>
       <c r="J4">
-        <v>1.113751880280625</v>
+        <v>1.113751880243465</v>
       </c>
       <c r="K4">
-        <v>3.006397543745789</v>
+        <v>3.006397543763111</v>
       </c>
       <c r="L4">
-        <v>1.11375188023268</v>
+        <v>1.113751880233429</v>
       </c>
       <c r="M4">
-        <v>3.006397543745516</v>
+        <v>3.006397543745002</v>
       </c>
       <c r="N4">
-        <v>0.9404460387014988</v>
+        <v>0.9574739501892685</v>
       </c>
       <c r="O4">
-        <v>1.000000000000275</v>
+        <v>0.7019303077934761</v>
       </c>
       <c r="P4">
-        <v>0.9383153127336428</v>
+        <v>0.8695631603227794</v>
       </c>
       <c r="Q4">
-        <v>32.2619521624999</v>
+        <v>21.44662537309587</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999736</v>
+        <v>-97.63434507041895</v>
       </c>
       <c r="S4">
-        <v>147.9447511468697</v>
+        <v>156.5800438134807</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -9266,58 +9266,58 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4109764844776729</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.8628244194424142</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.9457031949250926</v>
       </c>
       <c r="E5">
-        <v>4.74554767887581</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>9.963038216569208</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10.92003988326983</v>
       </c>
       <c r="H5">
-        <v>15.19611505439136</v>
+        <v>15.19611505439121</v>
       </c>
       <c r="I5">
-        <v>54.74848265373448</v>
+        <v>54.74848265373478</v>
       </c>
       <c r="J5">
-        <v>2.112151900898686</v>
+        <v>2.112151900861305</v>
       </c>
       <c r="K5">
-        <v>3.596397547088388</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L5">
-        <v>2.112151900850747</v>
+        <v>2.112151900851268</v>
       </c>
       <c r="M5">
-        <v>3.596397547088213</v>
+        <v>3.596397547087705</v>
       </c>
       <c r="N5">
-        <v>0.9323327307442658</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="O5">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778232</v>
       </c>
       <c r="P5">
-        <v>0.9221519848974011</v>
+        <v>0.8677743776472471</v>
       </c>
       <c r="Q5">
-        <v>33.1213710674494</v>
+        <v>20.20478536459425</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999721</v>
+        <v>-95.39765209811364</v>
       </c>
       <c r="S5">
-        <v>147.8611386207801</v>
+        <v>159.0090121585893</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -9325,58 +9325,58 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4109764844776727</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.8628244194424139</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9457031949250921</v>
       </c>
       <c r="E6">
-        <v>4.745547678875808</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9.963038216569206</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10.92003988326982</v>
       </c>
       <c r="H6">
-        <v>15.19611505439135</v>
+        <v>15.19611505439117</v>
       </c>
       <c r="I6">
-        <v>54.74848265373451</v>
+        <v>54.7484826537348</v>
       </c>
       <c r="J6">
-        <v>2.112151900898694</v>
+        <v>2.112151900861293</v>
       </c>
       <c r="K6">
-        <v>3.596397547088384</v>
+        <v>3.596397547105719</v>
       </c>
       <c r="L6">
-        <v>2.112151900850749</v>
+        <v>2.112151900851274</v>
       </c>
       <c r="M6">
-        <v>3.596397547088209</v>
+        <v>3.596397547087707</v>
       </c>
       <c r="N6">
-        <v>0.9323327307442657</v>
+        <v>0.9268372424913426</v>
       </c>
       <c r="O6">
-        <v>1.00000000000019</v>
+        <v>0.6337732350778236</v>
       </c>
       <c r="P6">
-        <v>0.9221519848974012</v>
+        <v>0.867774377647247</v>
       </c>
       <c r="Q6">
-        <v>33.1213710674494</v>
+        <v>20.20478536459426</v>
       </c>
       <c r="R6">
-        <v>-89.9999999999972</v>
+        <v>-95.39765209811362</v>
       </c>
       <c r="S6">
-        <v>147.8611386207801</v>
+        <v>159.0090121585893</v>
       </c>
     </row>
   </sheetData>
